--- a/media/Flows.xlsx
+++ b/media/Flows.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="14355" windowHeight="4950"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="14355" windowHeight="4950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Citi" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -64,7 +64,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -368,6 +368,498 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43805</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+      <c r="C2">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43806</v>
+      </c>
+      <c r="B3">
+        <v>1000</v>
+      </c>
+      <c r="C3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B4">
+        <v>1000</v>
+      </c>
+      <c r="C4">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43808</v>
+      </c>
+      <c r="B5">
+        <v>1000</v>
+      </c>
+      <c r="C5">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43809</v>
+      </c>
+      <c r="B6">
+        <v>1000</v>
+      </c>
+      <c r="C6">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43810</v>
+      </c>
+      <c r="B7">
+        <v>1000</v>
+      </c>
+      <c r="C7">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43811</v>
+      </c>
+      <c r="B8">
+        <v>1000</v>
+      </c>
+      <c r="C8">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43812</v>
+      </c>
+      <c r="B9">
+        <v>1000</v>
+      </c>
+      <c r="C9">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43813</v>
+      </c>
+      <c r="B10">
+        <v>1000</v>
+      </c>
+      <c r="C10">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43814</v>
+      </c>
+      <c r="B11">
+        <v>1000</v>
+      </c>
+      <c r="C11">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43815</v>
+      </c>
+      <c r="B12">
+        <v>1000</v>
+      </c>
+      <c r="C12">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43816</v>
+      </c>
+      <c r="B13">
+        <v>1000</v>
+      </c>
+      <c r="C13">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43817</v>
+      </c>
+      <c r="B14">
+        <v>1000</v>
+      </c>
+      <c r="C14">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43818</v>
+      </c>
+      <c r="B15">
+        <v>1000</v>
+      </c>
+      <c r="C15">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43819</v>
+      </c>
+      <c r="B16">
+        <v>1000</v>
+      </c>
+      <c r="C16">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43820</v>
+      </c>
+      <c r="B17">
+        <v>1000</v>
+      </c>
+      <c r="C17">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43821</v>
+      </c>
+      <c r="B18">
+        <v>1000</v>
+      </c>
+      <c r="C18">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43822</v>
+      </c>
+      <c r="B19">
+        <v>1000</v>
+      </c>
+      <c r="C19">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43823</v>
+      </c>
+      <c r="B20">
+        <v>1000</v>
+      </c>
+      <c r="C20">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43824</v>
+      </c>
+      <c r="B21">
+        <v>1000</v>
+      </c>
+      <c r="C21">
+        <v>-500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43806</v>
+      </c>
+      <c r="B2">
+        <v>2000</v>
+      </c>
+      <c r="C2">
+        <v>-5000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B3">
+        <v>2000</v>
+      </c>
+      <c r="C3">
+        <v>-5000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43808</v>
+      </c>
+      <c r="B4">
+        <v>2000</v>
+      </c>
+      <c r="C4">
+        <v>-5000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43809</v>
+      </c>
+      <c r="B5">
+        <v>2000</v>
+      </c>
+      <c r="C5">
+        <v>-5000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43810</v>
+      </c>
+      <c r="B6">
+        <v>2000</v>
+      </c>
+      <c r="C6">
+        <v>-5000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43811</v>
+      </c>
+      <c r="B7">
+        <v>2000</v>
+      </c>
+      <c r="C7">
+        <v>-5000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43812</v>
+      </c>
+      <c r="B8">
+        <v>2000</v>
+      </c>
+      <c r="C8">
+        <v>-5000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43813</v>
+      </c>
+      <c r="B9">
+        <v>2000</v>
+      </c>
+      <c r="C9">
+        <v>-5000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43814</v>
+      </c>
+      <c r="B10">
+        <v>2000</v>
+      </c>
+      <c r="C10">
+        <v>-5000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43815</v>
+      </c>
+      <c r="B11">
+        <v>2000</v>
+      </c>
+      <c r="C11">
+        <v>-5000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43816</v>
+      </c>
+      <c r="B12">
+        <v>2000</v>
+      </c>
+      <c r="C12">
+        <v>-5000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43817</v>
+      </c>
+      <c r="B13">
+        <v>2000</v>
+      </c>
+      <c r="C13">
+        <v>-5000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43818</v>
+      </c>
+      <c r="B14">
+        <v>2000</v>
+      </c>
+      <c r="C14">
+        <v>-5000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43819</v>
+      </c>
+      <c r="B15">
+        <v>2000</v>
+      </c>
+      <c r="C15">
+        <v>-5000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43820</v>
+      </c>
+      <c r="B16">
+        <v>2000</v>
+      </c>
+      <c r="C16">
+        <v>-5000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43821</v>
+      </c>
+      <c r="B17">
+        <v>2000</v>
+      </c>
+      <c r="C17">
+        <v>-5000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43822</v>
+      </c>
+      <c r="B18">
+        <v>2000</v>
+      </c>
+      <c r="C18">
+        <v>-5000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43823</v>
+      </c>
+      <c r="B19">
+        <v>2000</v>
+      </c>
+      <c r="C19">
+        <v>-5000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43824</v>
+      </c>
+      <c r="B20">
+        <v>2000</v>
+      </c>
+      <c r="C20">
+        <v>-5000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43825</v>
+      </c>
+      <c r="B21">
+        <v>2000</v>
+      </c>
+      <c r="C21">
+        <v>-5000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -385,21 +877,21 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43636</v>
+        <v>43807</v>
       </c>
       <c r="B2">
-        <v>1000</v>
+        <v>1234</v>
       </c>
       <c r="C2">
-        <v>-5000</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43637</v>
+        <v>43808</v>
       </c>
       <c r="B3">
-        <v>555</v>
+        <v>1234</v>
       </c>
       <c r="C3">
         <v>-100</v>
@@ -407,200 +899,200 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>43638</v>
+        <v>43809</v>
       </c>
       <c r="B4">
-        <v>46464</v>
+        <v>1234</v>
       </c>
       <c r="C4">
-        <v>-22</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>43639</v>
+        <v>43810</v>
       </c>
       <c r="B5">
-        <v>54564</v>
+        <v>1234</v>
       </c>
       <c r="C5">
-        <v>-3335</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>43640</v>
+        <v>43811</v>
       </c>
       <c r="B6">
-        <v>555</v>
+        <v>1234</v>
       </c>
       <c r="C6">
-        <v>-2255</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>43641</v>
+        <v>43812</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>1234</v>
       </c>
       <c r="C7">
-        <v>-1000</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>43642</v>
+        <v>43813</v>
       </c>
       <c r="B8">
-        <v>5644</v>
+        <v>1234</v>
       </c>
       <c r="C8">
-        <v>-50000</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>43643</v>
+        <v>43814</v>
       </c>
       <c r="B9">
-        <v>5644</v>
+        <v>1234</v>
       </c>
       <c r="C9">
-        <v>-50000</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>43644</v>
+        <v>43815</v>
       </c>
       <c r="B10">
-        <v>5644</v>
+        <v>1234</v>
       </c>
       <c r="C10">
-        <v>-50000</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>43645</v>
+        <v>43816</v>
       </c>
       <c r="B11">
-        <v>7000</v>
+        <v>1234</v>
       </c>
       <c r="C11">
-        <v>-50000</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>43646</v>
+        <v>43817</v>
       </c>
       <c r="B12">
-        <v>7000</v>
+        <v>1234</v>
       </c>
       <c r="C12">
-        <v>-20000</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>43647</v>
+        <v>43818</v>
       </c>
       <c r="B13">
-        <v>7000</v>
+        <v>1234</v>
       </c>
       <c r="C13">
-        <v>-20000</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>43648</v>
+        <v>43819</v>
       </c>
       <c r="B14">
-        <v>7000</v>
+        <v>1234</v>
       </c>
       <c r="C14">
-        <v>-20000</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>43649</v>
+        <v>43820</v>
       </c>
       <c r="B15">
-        <v>1110</v>
+        <v>1234</v>
       </c>
       <c r="C15">
-        <v>-555</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>43650</v>
+        <v>43821</v>
       </c>
       <c r="B16">
-        <v>170000</v>
+        <v>1234</v>
       </c>
       <c r="C16">
-        <v>-20000</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>43651</v>
+        <v>43822</v>
       </c>
       <c r="B17">
-        <v>170000</v>
+        <v>1234</v>
       </c>
       <c r="C17">
-        <v>-20000</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>43652</v>
+        <v>43823</v>
       </c>
       <c r="B18">
-        <v>170000</v>
+        <v>1234</v>
       </c>
       <c r="C18">
-        <v>-50000</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>43653</v>
+        <v>43824</v>
       </c>
       <c r="B19">
-        <v>2500</v>
+        <v>1234</v>
       </c>
       <c r="C19">
-        <v>-170</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>43654</v>
+        <v>43825</v>
       </c>
       <c r="B20">
-        <v>3333</v>
+        <v>1234</v>
       </c>
       <c r="C20">
-        <v>-50000</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>43655</v>
+        <v>43826</v>
       </c>
       <c r="B21">
-        <v>33488</v>
+        <v>1234</v>
       </c>
       <c r="C21">
-        <v>-50000</v>
+        <v>-100</v>
       </c>
     </row>
   </sheetData>
@@ -608,12 +1100,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,197 +1123,197 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43636</v>
+        <v>43808</v>
       </c>
       <c r="B2">
-        <v>1000</v>
+        <v>555</v>
       </c>
       <c r="C2">
-        <v>-5000</v>
+        <v>-170</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43637</v>
+        <v>43809</v>
       </c>
       <c r="B3">
         <v>555</v>
       </c>
       <c r="C3">
-        <v>-100</v>
+        <v>-170</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>43638</v>
+        <v>43810</v>
       </c>
       <c r="B4">
-        <v>46464</v>
+        <v>555</v>
       </c>
       <c r="C4">
-        <v>-22</v>
+        <v>-170</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>43639</v>
+        <v>43811</v>
       </c>
       <c r="B5">
-        <v>54564</v>
+        <v>555</v>
       </c>
       <c r="C5">
-        <v>-3335</v>
+        <v>-170</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>43640</v>
+        <v>43812</v>
       </c>
       <c r="B6">
         <v>555</v>
       </c>
       <c r="C6">
-        <v>-2255</v>
+        <v>-170</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>43641</v>
+        <v>43813</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>555</v>
       </c>
       <c r="C7">
-        <v>-1000</v>
+        <v>-170</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>43642</v>
+        <v>43814</v>
       </c>
       <c r="B8">
-        <v>5644</v>
+        <v>555</v>
       </c>
       <c r="C8">
-        <v>-50000</v>
+        <v>-170</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>43643</v>
+        <v>43815</v>
       </c>
       <c r="B9">
-        <v>5644</v>
+        <v>555</v>
       </c>
       <c r="C9">
-        <v>-50000</v>
+        <v>-170</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>43644</v>
+        <v>43816</v>
       </c>
       <c r="B10">
-        <v>5644</v>
+        <v>555</v>
       </c>
       <c r="C10">
-        <v>-50000</v>
+        <v>-170</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>43645</v>
+        <v>43817</v>
       </c>
       <c r="B11">
-        <v>7000</v>
+        <v>555</v>
       </c>
       <c r="C11">
-        <v>-50000</v>
+        <v>-170</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>43646</v>
+        <v>43818</v>
       </c>
       <c r="B12">
-        <v>7000</v>
+        <v>555</v>
       </c>
       <c r="C12">
-        <v>-20000</v>
+        <v>-170</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>43647</v>
+        <v>43819</v>
       </c>
       <c r="B13">
-        <v>7000</v>
+        <v>555</v>
       </c>
       <c r="C13">
-        <v>-20000</v>
+        <v>-170</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>43648</v>
+        <v>43820</v>
       </c>
       <c r="B14">
-        <v>7000</v>
+        <v>555</v>
       </c>
       <c r="C14">
-        <v>-20000</v>
+        <v>-170</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>43649</v>
+        <v>43821</v>
       </c>
       <c r="B15">
-        <v>1110</v>
+        <v>555</v>
       </c>
       <c r="C15">
-        <v>-555</v>
+        <v>-170</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>43650</v>
+        <v>43822</v>
       </c>
       <c r="B16">
-        <v>170000</v>
+        <v>555</v>
       </c>
       <c r="C16">
-        <v>-20000</v>
+        <v>-170</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>43651</v>
+        <v>43823</v>
       </c>
       <c r="B17">
-        <v>170000</v>
+        <v>555</v>
       </c>
       <c r="C17">
-        <v>-20000</v>
+        <v>-170</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>43652</v>
+        <v>43824</v>
       </c>
       <c r="B18">
-        <v>170000</v>
+        <v>555</v>
       </c>
       <c r="C18">
-        <v>-50000</v>
+        <v>-170</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>43653</v>
+        <v>43825</v>
       </c>
       <c r="B19">
-        <v>2500</v>
+        <v>555</v>
       </c>
       <c r="C19">
         <v>-170</v>
@@ -829,516 +1321,24 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>43654</v>
+        <v>43826</v>
       </c>
       <c r="B20">
-        <v>3333</v>
+        <v>555</v>
       </c>
       <c r="C20">
-        <v>-50000</v>
+        <v>-170</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>43655</v>
+        <v>43827</v>
       </c>
       <c r="B21">
-        <v>33488</v>
+        <v>555</v>
       </c>
       <c r="C21">
-        <v>-50000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>43636</v>
-      </c>
-      <c r="B2">
-        <v>1000</v>
-      </c>
-      <c r="C2">
-        <v>-5000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43637</v>
-      </c>
-      <c r="B3">
-        <v>555</v>
-      </c>
-      <c r="C3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43638</v>
-      </c>
-      <c r="B4">
-        <v>46464</v>
-      </c>
-      <c r="C4">
-        <v>-22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>43639</v>
-      </c>
-      <c r="B5">
-        <v>54564</v>
-      </c>
-      <c r="C5">
-        <v>-3335</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>43640</v>
-      </c>
-      <c r="B6">
-        <v>555</v>
-      </c>
-      <c r="C6">
-        <v>-2255</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>43641</v>
-      </c>
-      <c r="B7">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>-1000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>43642</v>
-      </c>
-      <c r="B8">
-        <v>5644</v>
-      </c>
-      <c r="C8">
-        <v>-50000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>43643</v>
-      </c>
-      <c r="B9">
-        <v>5644</v>
-      </c>
-      <c r="C9">
-        <v>-50000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>43644</v>
-      </c>
-      <c r="B10">
-        <v>5644</v>
-      </c>
-      <c r="C10">
-        <v>-50000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>43645</v>
-      </c>
-      <c r="B11">
-        <v>7000</v>
-      </c>
-      <c r="C11">
-        <v>-50000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>43646</v>
-      </c>
-      <c r="B12">
-        <v>7000</v>
-      </c>
-      <c r="C12">
-        <v>-20000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>43647</v>
-      </c>
-      <c r="B13">
-        <v>7000</v>
-      </c>
-      <c r="C13">
-        <v>-20000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>43648</v>
-      </c>
-      <c r="B14">
-        <v>7000</v>
-      </c>
-      <c r="C14">
-        <v>-20000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>43649</v>
-      </c>
-      <c r="B15">
-        <v>1110</v>
-      </c>
-      <c r="C15">
-        <v>-555</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>43650</v>
-      </c>
-      <c r="B16">
-        <v>170000</v>
-      </c>
-      <c r="C16">
-        <v>-20000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>43651</v>
-      </c>
-      <c r="B17">
-        <v>170000</v>
-      </c>
-      <c r="C17">
-        <v>-20000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>43652</v>
-      </c>
-      <c r="B18">
-        <v>170000</v>
-      </c>
-      <c r="C18">
-        <v>-50000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>43653</v>
-      </c>
-      <c r="B19">
-        <v>2500</v>
-      </c>
-      <c r="C19">
-        <v>-170</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>43654</v>
-      </c>
-      <c r="B20">
-        <v>3333</v>
-      </c>
-      <c r="C20">
-        <v>-50000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>43655</v>
-      </c>
-      <c r="B21">
-        <v>33488</v>
-      </c>
-      <c r="C21">
-        <v>-50000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>43636</v>
-      </c>
-      <c r="B2">
-        <v>1000</v>
-      </c>
-      <c r="C2">
-        <v>-5000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43637</v>
-      </c>
-      <c r="B3">
-        <v>555</v>
-      </c>
-      <c r="C3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43638</v>
-      </c>
-      <c r="B4">
-        <v>46464</v>
-      </c>
-      <c r="C4">
-        <v>-22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>43639</v>
-      </c>
-      <c r="B5">
-        <v>54564</v>
-      </c>
-      <c r="C5">
-        <v>-3335</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>43640</v>
-      </c>
-      <c r="B6">
-        <v>555</v>
-      </c>
-      <c r="C6">
-        <v>-2255</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>43641</v>
-      </c>
-      <c r="B7">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>-1000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>43642</v>
-      </c>
-      <c r="B8">
-        <v>5644</v>
-      </c>
-      <c r="C8">
-        <v>-50000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>43643</v>
-      </c>
-      <c r="B9">
-        <v>5644</v>
-      </c>
-      <c r="C9">
-        <v>-50000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>43644</v>
-      </c>
-      <c r="B10">
-        <v>5644</v>
-      </c>
-      <c r="C10">
-        <v>-50000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>43645</v>
-      </c>
-      <c r="B11">
-        <v>7000</v>
-      </c>
-      <c r="C11">
-        <v>-50000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>43646</v>
-      </c>
-      <c r="B12">
-        <v>7000</v>
-      </c>
-      <c r="C12">
-        <v>-20000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>43647</v>
-      </c>
-      <c r="B13">
-        <v>7000</v>
-      </c>
-      <c r="C13">
-        <v>-20000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>43648</v>
-      </c>
-      <c r="B14">
-        <v>7000</v>
-      </c>
-      <c r="C14">
-        <v>-20000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>43649</v>
-      </c>
-      <c r="B15">
-        <v>1110</v>
-      </c>
-      <c r="C15">
-        <v>-555</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>43650</v>
-      </c>
-      <c r="B16">
-        <v>170000</v>
-      </c>
-      <c r="C16">
-        <v>-20000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>43651</v>
-      </c>
-      <c r="B17">
-        <v>170000</v>
-      </c>
-      <c r="C17">
-        <v>-20000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>43652</v>
-      </c>
-      <c r="B18">
-        <v>170000</v>
-      </c>
-      <c r="C18">
-        <v>-50000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>43653</v>
-      </c>
-      <c r="B19">
-        <v>2500</v>
-      </c>
-      <c r="C19">
-        <v>-170</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>43654</v>
-      </c>
-      <c r="B20">
-        <v>3333</v>
-      </c>
-      <c r="C20">
-        <v>-50000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>43655</v>
-      </c>
-      <c r="B21">
-        <v>33488</v>
-      </c>
-      <c r="C21">
-        <v>-50000</v>
+        <v>-170</v>
       </c>
     </row>
   </sheetData>
